--- a/xtt_demo/04-01_R.xlsx
+++ b/xtt_demo/04-01_R.xlsx
@@ -4220,7 +4220,7 @@
   <sheetData>
     <row r="2" customHeight="1" ht="15">
       <c r="B2" s="1">
-        <v>44013.000000000000</v>
+        <v>44016.000000000000</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="3" customHeight="1" ht="15">
       <c r="B3" s="2">
-        <v>0.7009837962962963</v>
+        <v>0.5585185185185185</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="6" customHeight="1" ht="15">
       <c r="B6" s="4">
-        <v>44013.700983796298</v>
+        <v>44016.558518518519</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>963</v>
@@ -8569,2106 +8569,2106 @@
     </row>
     <row r="280" customHeight="1" ht="15">
       <c r="B280" s="8" t="s">
-        <v>12</v>
+        <v>953</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>82</v>
+        <v>962</v>
       </c>
     </row>
     <row r="281" customHeight="1" ht="15">
       <c r="B281" s="8" t="s">
-        <v>19</v>
+        <v>957</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>42</v>
+        <v>959</v>
       </c>
     </row>
     <row r="282" customHeight="1" ht="15">
       <c r="B282" s="8" t="s">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>941</v>
+        <v>975</v>
       </c>
     </row>
     <row r="283" customHeight="1" ht="15">
       <c r="B283" s="8" t="s">
-        <v>21</v>
+        <v>974</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>38</v>
+        <v>820</v>
       </c>
     </row>
     <row r="284" customHeight="1" ht="15">
       <c r="B284" s="8" t="s">
-        <v>22</v>
+        <v>982</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>46</v>
+        <v>987</v>
       </c>
     </row>
     <row r="285" customHeight="1" ht="15">
       <c r="B285" s="8" t="s">
-        <v>23</v>
+        <v>984</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>44</v>
+        <v>585</v>
       </c>
     </row>
     <row r="286" customHeight="1" ht="15">
       <c r="B286" s="8" t="s">
-        <v>24</v>
+        <v>988</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>39</v>
+        <v>837</v>
       </c>
     </row>
     <row r="287" customHeight="1" ht="15">
       <c r="B287" s="8" t="s">
-        <v>25</v>
+        <v>989</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>48</v>
+        <v>992</v>
       </c>
     </row>
     <row r="288" customHeight="1" ht="15">
       <c r="B288" s="8" t="s">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>202</v>
+        <v>993</v>
       </c>
     </row>
     <row r="289" customHeight="1" ht="15">
       <c r="B289" s="8" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
     </row>
     <row r="290" customHeight="1" ht="15">
       <c r="B290" s="8" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="291" customHeight="1" ht="15">
       <c r="B291" s="8" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
     </row>
     <row r="292" customHeight="1" ht="15">
       <c r="B292" s="8" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>821</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293" customHeight="1" ht="15">
       <c r="B293" s="8" t="s">
-        <v>31</v>
+        <v>991</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>51</v>
+        <v>347</v>
       </c>
     </row>
     <row r="294" customHeight="1" ht="15">
       <c r="B294" s="8" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="295" customHeight="1" ht="15">
       <c r="B295" s="8" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="296" customHeight="1" ht="15">
       <c r="B296" s="8" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="297" customHeight="1" ht="15">
       <c r="B297" s="8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="298" customHeight="1" ht="15">
       <c r="B298" s="8" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="299" customHeight="1" ht="15">
       <c r="B299" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="300" customHeight="1" ht="15">
       <c r="B300" s="8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="301" customHeight="1" ht="15">
       <c r="B301" s="8" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="302" customHeight="1" ht="15">
       <c r="B302" s="8" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="303" customHeight="1" ht="15">
       <c r="B303" s="8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="304" customHeight="1" ht="15">
       <c r="B304" s="8" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="305" customHeight="1" ht="15">
       <c r="B305" s="8" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="306" customHeight="1" ht="15">
       <c r="B306" s="8" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>87</v>
+        <v>418</v>
       </c>
     </row>
     <row r="307" customHeight="1" ht="15">
       <c r="B307" s="8" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
     </row>
     <row r="308" customHeight="1" ht="15">
       <c r="B308" s="8" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="309" customHeight="1" ht="15">
       <c r="B309" s="8" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>103</v>
+        <v>788</v>
       </c>
     </row>
     <row r="310" customHeight="1" ht="15">
       <c r="B310" s="8" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
     </row>
     <row r="311" customHeight="1" ht="15">
       <c r="B311" s="8" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
     </row>
     <row r="312" customHeight="1" ht="15">
       <c r="B312" s="8" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
     </row>
     <row r="313" customHeight="1" ht="15">
       <c r="B313" s="8" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
     </row>
     <row r="314" customHeight="1" ht="15">
       <c r="B314" s="8" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
     </row>
     <row r="315" customHeight="1" ht="15">
       <c r="B315" s="8" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>95</v>
+        <v>863</v>
       </c>
     </row>
     <row r="316" customHeight="1" ht="15">
       <c r="B316" s="8" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
     </row>
     <row r="317" customHeight="1" ht="15">
       <c r="B317" s="8" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
     </row>
     <row r="318" customHeight="1" ht="15">
       <c r="B318" s="8" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
     </row>
     <row r="319" customHeight="1" ht="15">
       <c r="B319" s="8" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="320" customHeight="1" ht="15">
       <c r="B320" s="8" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="321" customHeight="1" ht="15">
       <c r="B321" s="8" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>418</v>
+        <v>827</v>
       </c>
     </row>
     <row r="322" customHeight="1" ht="15">
       <c r="B322" s="8" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="323" customHeight="1" ht="15">
       <c r="B323" s="8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
     </row>
     <row r="324" customHeight="1" ht="15">
       <c r="B324" s="8" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>788</v>
+        <v>180</v>
       </c>
     </row>
     <row r="325" customHeight="1" ht="15">
       <c r="B325" s="8" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>863</v>
+        <v>288</v>
       </c>
     </row>
     <row r="326" customHeight="1" ht="15">
       <c r="B326" s="8" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="327" customHeight="1" ht="15">
       <c r="B327" s="8" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
     </row>
     <row r="328" customHeight="1" ht="15">
       <c r="B328" s="8" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
     </row>
     <row r="329" customHeight="1" ht="15">
       <c r="B329" s="8" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
     </row>
     <row r="330" customHeight="1" ht="15">
       <c r="B330" s="8" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
     </row>
     <row r="331" customHeight="1" ht="15">
       <c r="B331" s="8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
     </row>
     <row r="332" customHeight="1" ht="15">
       <c r="B332" s="8" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
     </row>
     <row r="333" customHeight="1" ht="15">
       <c r="B333" s="8" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>827</v>
+        <v>215</v>
       </c>
     </row>
     <row r="334" customHeight="1" ht="15">
       <c r="B334" s="8" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>165</v>
+        <v>978</v>
       </c>
     </row>
     <row r="335" customHeight="1" ht="15">
       <c r="B335" s="8" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
     </row>
     <row r="336" customHeight="1" ht="15">
       <c r="B336" s="8" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>178</v>
+        <v>840</v>
       </c>
     </row>
     <row r="337" customHeight="1" ht="15">
       <c r="B337" s="8" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
     </row>
     <row r="338" customHeight="1" ht="15">
       <c r="B338" s="8" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
     </row>
     <row r="339" customHeight="1" ht="15">
       <c r="B339" s="8" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
     </row>
     <row r="340" customHeight="1" ht="15">
       <c r="B340" s="8" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
     </row>
     <row r="341" customHeight="1" ht="15">
       <c r="B341" s="8" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
     </row>
     <row r="342" customHeight="1" ht="15">
       <c r="B342" s="8" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="C342" s="8" t="s">
-        <v>196</v>
+        <v>609</v>
       </c>
     </row>
     <row r="343" customHeight="1" ht="15">
       <c r="B343" s="8" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="C343" s="8" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="344" customHeight="1" ht="15">
       <c r="B344" s="8" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
     </row>
     <row r="345" customHeight="1" ht="15">
       <c r="B345" s="8" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>40</v>
+        <v>283</v>
       </c>
     </row>
     <row r="346" customHeight="1" ht="15">
       <c r="B346" s="8" t="s">
-        <v>204</v>
+        <v>416</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
     </row>
     <row r="347" customHeight="1" ht="15">
       <c r="B347" s="8" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
     </row>
     <row r="348" customHeight="1" ht="15">
       <c r="B348" s="8" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="C348" s="8" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
     </row>
     <row r="349" customHeight="1" ht="15">
       <c r="B349" s="8" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>978</v>
+        <v>247</v>
       </c>
     </row>
     <row r="350" customHeight="1" ht="15">
       <c r="B350" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="351" customHeight="1" ht="15">
       <c r="B351" s="8" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>840</v>
+        <v>289</v>
       </c>
     </row>
     <row r="352" customHeight="1" ht="15">
       <c r="B352" s="8" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
     </row>
     <row r="353" customHeight="1" ht="15">
       <c r="B353" s="8" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
     </row>
     <row r="354" customHeight="1" ht="15">
       <c r="B354" s="8" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
     </row>
     <row r="355" customHeight="1" ht="15">
       <c r="B355" s="8" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
     </row>
     <row r="356" customHeight="1" ht="15">
       <c r="B356" s="8" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
     </row>
     <row r="357" customHeight="1" ht="15">
       <c r="B357" s="8" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>609</v>
+        <v>219</v>
       </c>
     </row>
     <row r="358" customHeight="1" ht="15">
       <c r="B358" s="8" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
     </row>
     <row r="359" customHeight="1" ht="15">
       <c r="B359" s="8" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
     </row>
     <row r="360" customHeight="1" ht="15">
       <c r="B360" s="8" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="361" customHeight="1" ht="15">
       <c r="B361" s="8" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>938</v>
+        <v>313</v>
       </c>
     </row>
     <row r="362" customHeight="1" ht="15">
       <c r="B362" s="8" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="363" customHeight="1" ht="15">
       <c r="B363" s="8" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
     </row>
     <row r="364" customHeight="1" ht="15">
       <c r="B364" s="8" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>247</v>
+        <v>338</v>
       </c>
     </row>
     <row r="365" customHeight="1" ht="15">
       <c r="B365" s="8" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
     </row>
     <row r="366" customHeight="1" ht="15">
       <c r="B366" s="8" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
     </row>
     <row r="367" customHeight="1" ht="15">
       <c r="B367" s="8" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>290</v>
+        <v>795</v>
       </c>
     </row>
     <row r="368" customHeight="1" ht="15">
       <c r="B368" s="8" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="369" customHeight="1" ht="15">
       <c r="B369" s="8" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
     </row>
     <row r="370" customHeight="1" ht="15">
       <c r="B370" s="8" t="s">
-        <v>270</v>
+        <v>342</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="371" customHeight="1" ht="15">
       <c r="B371" s="8" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
     </row>
     <row r="372" customHeight="1" ht="15">
       <c r="B372" s="8" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>219</v>
+        <v>361</v>
       </c>
     </row>
     <row r="373" customHeight="1" ht="15">
       <c r="B373" s="8" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>307</v>
+        <v>164</v>
       </c>
     </row>
     <row r="374" customHeight="1" ht="15">
       <c r="B374" s="8" t="s">
-        <v>278</v>
+        <v>345</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>795</v>
+        <v>360</v>
       </c>
     </row>
     <row r="375" customHeight="1" ht="15">
       <c r="B375" s="8" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>314</v>
+        <v>97</v>
       </c>
     </row>
     <row r="376" customHeight="1" ht="15">
       <c r="B376" s="8" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
     </row>
     <row r="377" customHeight="1" ht="15">
       <c r="B377" s="8" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="378" customHeight="1" ht="15">
       <c r="B378" s="8" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="379" customHeight="1" ht="15">
       <c r="B379" s="8" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="380" customHeight="1" ht="15">
       <c r="B380" s="8" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="381" customHeight="1" ht="15">
       <c r="B381" s="8" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
     </row>
     <row r="382" customHeight="1" ht="15">
       <c r="B382" s="8" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>164</v>
+        <v>374</v>
       </c>
     </row>
     <row r="383" customHeight="1" ht="15">
       <c r="B383" s="8" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
     </row>
     <row r="384" customHeight="1" ht="15">
       <c r="B384" s="8" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>341</v>
+        <v>422</v>
       </c>
     </row>
     <row r="385" customHeight="1" ht="15">
       <c r="B385" s="8" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>356</v>
+        <v>456</v>
       </c>
     </row>
     <row r="386" customHeight="1" ht="15">
       <c r="B386" s="8" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>359</v>
+        <v>138</v>
       </c>
     </row>
     <row r="387" customHeight="1" ht="15">
       <c r="B387" s="8" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>361</v>
+        <v>454</v>
       </c>
     </row>
     <row r="388" customHeight="1" ht="15">
       <c r="B388" s="8" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>360</v>
+        <v>157</v>
       </c>
     </row>
     <row r="389" customHeight="1" ht="15">
       <c r="B389" s="8" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>355</v>
+        <v>854</v>
       </c>
     </row>
     <row r="390" customHeight="1" ht="15">
       <c r="B390" s="8" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>97</v>
+        <v>696</v>
       </c>
     </row>
     <row r="391" customHeight="1" ht="15">
       <c r="B391" s="8" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>358</v>
+        <v>838</v>
       </c>
     </row>
     <row r="392" customHeight="1" ht="15">
       <c r="B392" s="8" t="s">
-        <v>350</v>
+        <v>413</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>357</v>
+        <v>455</v>
       </c>
     </row>
     <row r="393" customHeight="1" ht="15">
       <c r="B393" s="8" t="s">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>353</v>
+        <v>146</v>
       </c>
     </row>
     <row r="394" customHeight="1" ht="15">
       <c r="B394" s="8" t="s">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>362</v>
+        <v>473</v>
       </c>
     </row>
     <row r="395" customHeight="1" ht="15">
       <c r="B395" s="8" t="s">
-        <v>364</v>
+        <v>459</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>373</v>
+        <v>475</v>
       </c>
     </row>
     <row r="396" customHeight="1" ht="15">
       <c r="B396" s="8" t="s">
-        <v>367</v>
+        <v>460</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>371</v>
+        <v>855</v>
       </c>
     </row>
     <row r="397" customHeight="1" ht="15">
       <c r="B397" s="8" t="s">
-        <v>369</v>
+        <v>462</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>374</v>
+        <v>479</v>
       </c>
     </row>
     <row r="398" customHeight="1" ht="15">
       <c r="B398" s="8" t="s">
-        <v>370</v>
+        <v>463</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>372</v>
+        <v>853</v>
       </c>
     </row>
     <row r="399" customHeight="1" ht="15">
       <c r="B399" s="8" t="s">
-        <v>384</v>
+        <v>467</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
     </row>
     <row r="400" customHeight="1" ht="15">
       <c r="B400" s="8" t="s">
-        <v>385</v>
+        <v>468</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
     </row>
     <row r="401" customHeight="1" ht="15">
       <c r="B401" s="8" t="s">
-        <v>391</v>
+        <v>469</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>138</v>
+        <v>485</v>
       </c>
     </row>
     <row r="402" customHeight="1" ht="15">
       <c r="B402" s="8" t="s">
-        <v>393</v>
+        <v>470</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
     </row>
     <row r="403" customHeight="1" ht="15">
       <c r="B403" s="8" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>157</v>
+        <v>474</v>
       </c>
     </row>
     <row r="404" customHeight="1" ht="15">
       <c r="B404" s="8" t="s">
-        <v>405</v>
+        <v>472</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>854</v>
+        <v>478</v>
       </c>
     </row>
     <row r="405" customHeight="1" ht="15">
       <c r="B405" s="8" t="s">
-        <v>407</v>
+        <v>502</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>696</v>
+        <v>655</v>
       </c>
     </row>
     <row r="406" customHeight="1" ht="15">
       <c r="B406" s="8" t="s">
-        <v>409</v>
+        <v>505</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>838</v>
+        <v>650</v>
       </c>
     </row>
     <row r="407" customHeight="1" ht="15">
       <c r="B407" s="8" t="s">
-        <v>413</v>
+        <v>506</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>455</v>
+        <v>645</v>
       </c>
     </row>
     <row r="408" customHeight="1" ht="15">
       <c r="B408" s="8" t="s">
-        <v>415</v>
+        <v>510</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>146</v>
+        <v>572</v>
       </c>
     </row>
     <row r="409" customHeight="1" ht="15">
       <c r="B409" s="8" t="s">
-        <v>416</v>
+        <v>518</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>417</v>
+        <v>578</v>
       </c>
     </row>
     <row r="410" customHeight="1" ht="15">
       <c r="B410" s="8" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>473</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" customHeight="1" ht="15">
       <c r="B411" s="8" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>475</v>
+        <v>576</v>
       </c>
     </row>
     <row r="412" customHeight="1" ht="15">
       <c r="B412" s="8" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>855</v>
+        <v>106</v>
       </c>
     </row>
     <row r="413" customHeight="1" ht="15">
       <c r="B413" s="8" t="s">
-        <v>462</v>
+        <v>539</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>479</v>
+        <v>651</v>
       </c>
     </row>
     <row r="414" customHeight="1" ht="15">
       <c r="B414" s="8" t="s">
-        <v>463</v>
+        <v>541</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>853</v>
+        <v>570</v>
       </c>
     </row>
     <row r="415" customHeight="1" ht="15">
       <c r="B415" s="8" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>477</v>
+        <v>658</v>
       </c>
     </row>
     <row r="416" customHeight="1" ht="15">
       <c r="B416" s="8" t="s">
-        <v>468</v>
+        <v>554</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>476</v>
+        <v>579</v>
       </c>
     </row>
     <row r="417" customHeight="1" ht="15">
       <c r="B417" s="8" t="s">
-        <v>469</v>
+        <v>555</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>485</v>
+        <v>583</v>
       </c>
     </row>
     <row r="418" customHeight="1" ht="15">
       <c r="B418" s="8" t="s">
-        <v>470</v>
+        <v>556</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>486</v>
+        <v>653</v>
       </c>
     </row>
     <row r="419" customHeight="1" ht="15">
       <c r="B419" s="8" t="s">
-        <v>471</v>
+        <v>560</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>474</v>
+        <v>577</v>
       </c>
     </row>
     <row r="420" customHeight="1" ht="15">
       <c r="B420" s="8" t="s">
-        <v>472</v>
+        <v>562</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>478</v>
+        <v>584</v>
       </c>
     </row>
     <row r="421" customHeight="1" ht="15">
       <c r="B421" s="8" t="s">
-        <v>495</v>
+        <v>563</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>654</v>
+        <v>575</v>
       </c>
     </row>
     <row r="422" customHeight="1" ht="15">
       <c r="B422" s="8" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>655</v>
+        <v>573</v>
       </c>
     </row>
     <row r="423" customHeight="1" ht="15">
       <c r="B423" s="8" t="s">
-        <v>505</v>
+        <v>364</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>650</v>
+        <v>373</v>
       </c>
     </row>
     <row r="424" customHeight="1" ht="15">
       <c r="B424" s="8" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="425" customHeight="1" ht="15">
       <c r="B425" s="8" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>507</v>
+        <v>656</v>
       </c>
     </row>
     <row r="426" customHeight="1" ht="15">
       <c r="B426" s="8" t="s">
-        <v>509</v>
+        <v>659</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>509</v>
+        <v>677</v>
       </c>
     </row>
     <row r="427" customHeight="1" ht="15">
       <c r="B427" s="8" t="s">
-        <v>510</v>
+        <v>662</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>572</v>
+        <v>685</v>
       </c>
     </row>
     <row r="428" customHeight="1" ht="15">
       <c r="B428" s="8" t="s">
-        <v>518</v>
+        <v>663</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>578</v>
+        <v>691</v>
       </c>
     </row>
     <row r="429" customHeight="1" ht="15">
       <c r="B429" s="8" t="s">
-        <v>526</v>
+        <v>664</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>571</v>
+        <v>695</v>
       </c>
     </row>
     <row r="430" customHeight="1" ht="15">
       <c r="B430" s="8" t="s">
-        <v>527</v>
+        <v>665</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>576</v>
+        <v>692</v>
       </c>
     </row>
     <row r="431" customHeight="1" ht="15">
       <c r="B431" s="8" t="s">
-        <v>530</v>
+        <v>666</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>106</v>
+        <v>690</v>
       </c>
     </row>
     <row r="432" customHeight="1" ht="15">
       <c r="B432" s="8" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>651</v>
+        <v>602</v>
       </c>
     </row>
     <row r="433" customHeight="1" ht="15">
       <c r="B433" s="8" t="s">
-        <v>541</v>
+        <v>670</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>570</v>
+        <v>697</v>
       </c>
     </row>
     <row r="434" customHeight="1" ht="15">
       <c r="B434" s="8" t="s">
-        <v>545</v>
+        <v>671</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
     </row>
     <row r="435" customHeight="1" ht="15">
       <c r="B435" s="8" t="s">
-        <v>554</v>
+        <v>672</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>579</v>
+        <v>682</v>
       </c>
     </row>
     <row r="436" customHeight="1" ht="15">
       <c r="B436" s="8" t="s">
-        <v>555</v>
+        <v>674</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
     </row>
     <row r="437" customHeight="1" ht="15">
       <c r="B437" s="8" t="s">
-        <v>556</v>
+        <v>675</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
     </row>
     <row r="438" customHeight="1" ht="15">
       <c r="B438" s="8" t="s">
-        <v>560</v>
+        <v>676</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>577</v>
+        <v>686</v>
       </c>
     </row>
     <row r="439" customHeight="1" ht="15">
       <c r="B439" s="8" t="s">
-        <v>562</v>
+        <v>701</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>584</v>
+        <v>707</v>
       </c>
     </row>
     <row r="440" customHeight="1" ht="15">
       <c r="B440" s="8" t="s">
-        <v>563</v>
+        <v>703</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>575</v>
+        <v>709</v>
       </c>
     </row>
     <row r="441" customHeight="1" ht="15">
       <c r="B441" s="8" t="s">
-        <v>565</v>
+        <v>713</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>573</v>
+        <v>746</v>
       </c>
     </row>
     <row r="442" customHeight="1" ht="15">
       <c r="B442" s="8" t="s">
-        <v>567</v>
+        <v>719</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>602</v>
+        <v>762</v>
       </c>
     </row>
     <row r="443" customHeight="1" ht="15">
       <c r="B443" s="8" t="s">
-        <v>568</v>
+        <v>720</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>574</v>
+        <v>246</v>
       </c>
     </row>
     <row r="444" customHeight="1" ht="15">
       <c r="B444" s="8" t="s">
-        <v>569</v>
+        <v>721</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>656</v>
+        <v>747</v>
       </c>
     </row>
     <row r="445" customHeight="1" ht="15">
       <c r="B445" s="8" t="s">
-        <v>659</v>
+        <v>722</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>677</v>
+        <v>763</v>
       </c>
     </row>
     <row r="446" customHeight="1" ht="15">
       <c r="B446" s="8" t="s">
-        <v>662</v>
+        <v>723</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>685</v>
+        <v>742</v>
       </c>
     </row>
     <row r="447" customHeight="1" ht="15">
       <c r="B447" s="8" t="s">
-        <v>663</v>
+        <v>724</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>691</v>
+        <v>770</v>
       </c>
     </row>
     <row r="448" customHeight="1" ht="15">
       <c r="B448" s="8" t="s">
-        <v>664</v>
+        <v>725</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>695</v>
+        <v>857</v>
       </c>
     </row>
     <row r="449" customHeight="1" ht="15">
       <c r="B449" s="8" t="s">
-        <v>665</v>
+        <v>728</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>692</v>
+        <v>768</v>
       </c>
     </row>
     <row r="450" customHeight="1" ht="15">
       <c r="B450" s="8" t="s">
-        <v>666</v>
+        <v>732</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>690</v>
+        <v>774</v>
       </c>
     </row>
     <row r="451" customHeight="1" ht="15">
       <c r="B451" s="8" t="s">
-        <v>667</v>
+        <v>568</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>684</v>
+        <v>574</v>
       </c>
     </row>
     <row r="452" customHeight="1" ht="15">
       <c r="B452" s="8" t="s">
-        <v>670</v>
+        <v>737</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>697</v>
+        <v>771</v>
       </c>
     </row>
     <row r="453" customHeight="1" ht="15">
       <c r="B453" s="8" t="s">
-        <v>671</v>
+        <v>738</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>683</v>
+        <v>743</v>
       </c>
     </row>
     <row r="454" customHeight="1" ht="15">
       <c r="B454" s="8" t="s">
-        <v>672</v>
+        <v>739</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>682</v>
+        <v>748</v>
       </c>
     </row>
     <row r="455" customHeight="1" ht="15">
       <c r="B455" s="8" t="s">
-        <v>674</v>
+        <v>775</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>661</v>
+        <v>777</v>
       </c>
     </row>
     <row r="456" customHeight="1" ht="15">
       <c r="B456" s="8" t="s">
-        <v>675</v>
+        <v>780</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
     </row>
     <row r="457" customHeight="1" ht="15">
       <c r="B457" s="8" t="s">
-        <v>676</v>
+        <v>783</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>686</v>
+        <v>791</v>
       </c>
     </row>
     <row r="458" customHeight="1" ht="15">
       <c r="B458" s="8" t="s">
-        <v>701</v>
+        <v>786</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>707</v>
+        <v>792</v>
       </c>
     </row>
     <row r="459" customHeight="1" ht="15">
       <c r="B459" s="8" t="s">
-        <v>703</v>
+        <v>787</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>709</v>
+        <v>793</v>
       </c>
     </row>
     <row r="460" customHeight="1" ht="15">
       <c r="B460" s="8" t="s">
-        <v>704</v>
+        <v>798</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>710</v>
+        <v>823</v>
       </c>
     </row>
     <row r="461" customHeight="1" ht="15">
       <c r="B461" s="8" t="s">
-        <v>713</v>
+        <v>799</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>746</v>
+        <v>835</v>
       </c>
     </row>
     <row r="462" customHeight="1" ht="15">
       <c r="B462" s="8" t="s">
-        <v>719</v>
+        <v>800</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>762</v>
+        <v>828</v>
       </c>
     </row>
     <row r="463" customHeight="1" ht="15">
       <c r="B463" s="8" t="s">
-        <v>720</v>
+        <v>801</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>246</v>
+        <v>858</v>
       </c>
     </row>
     <row r="464" customHeight="1" ht="15">
       <c r="B464" s="8" t="s">
-        <v>721</v>
+        <v>802</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>747</v>
+        <v>862</v>
       </c>
     </row>
     <row r="465" customHeight="1" ht="15">
       <c r="B465" s="8" t="s">
-        <v>722</v>
+        <v>803</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>763</v>
+        <v>831</v>
       </c>
     </row>
     <row r="466" customHeight="1" ht="15">
       <c r="B466" s="8" t="s">
-        <v>723</v>
+        <v>804</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>742</v>
+        <v>819</v>
       </c>
     </row>
     <row r="467" customHeight="1" ht="15">
       <c r="B467" s="8" t="s">
-        <v>724</v>
+        <v>805</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>770</v>
+        <v>834</v>
       </c>
     </row>
     <row r="468" customHeight="1" ht="15">
       <c r="B468" s="8" t="s">
-        <v>725</v>
+        <v>806</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="469" customHeight="1" ht="15">
       <c r="B469" s="8" t="s">
-        <v>728</v>
+        <v>807</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>768</v>
+        <v>833</v>
       </c>
     </row>
     <row r="470" customHeight="1" ht="15">
       <c r="B470" s="8" t="s">
-        <v>732</v>
+        <v>808</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>774</v>
+        <v>830</v>
       </c>
     </row>
     <row r="471" customHeight="1" ht="15">
       <c r="B471" s="8" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>744</v>
+        <v>822</v>
       </c>
     </row>
     <row r="472" customHeight="1" ht="15">
       <c r="B472" s="8" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>771</v>
+        <v>825</v>
       </c>
     </row>
     <row r="473" customHeight="1" ht="15">
       <c r="B473" s="8" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>743</v>
+        <v>836</v>
       </c>
     </row>
     <row r="474" customHeight="1" ht="15">
       <c r="B474" s="8" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>748</v>
+        <v>859</v>
       </c>
     </row>
     <row r="475" customHeight="1" ht="15">
       <c r="B475" s="8" t="s">
-        <v>775</v>
+        <v>667</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>777</v>
+        <v>684</v>
       </c>
     </row>
     <row r="476" customHeight="1" ht="15">
       <c r="B476" s="8" t="s">
-        <v>780</v>
+        <v>814</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
     </row>
     <row r="477" customHeight="1" ht="15">
       <c r="B477" s="8" t="s">
-        <v>783</v>
+        <v>815</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>791</v>
+        <v>216</v>
       </c>
     </row>
     <row r="478" customHeight="1" ht="15">
       <c r="B478" s="8" t="s">
-        <v>785</v>
+        <v>704</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>826</v>
+        <v>710</v>
       </c>
     </row>
     <row r="479" customHeight="1" ht="15">
       <c r="B479" s="8" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>792</v>
+        <v>864</v>
       </c>
     </row>
     <row r="480" customHeight="1" ht="15">
       <c r="B480" s="8" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>793</v>
+        <v>861</v>
       </c>
     </row>
     <row r="481" customHeight="1" ht="15">
       <c r="B481" s="8" t="s">
-        <v>798</v>
+        <v>866</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>823</v>
+        <v>913</v>
       </c>
     </row>
     <row r="482" customHeight="1" ht="15">
       <c r="B482" s="8" t="s">
-        <v>799</v>
+        <v>868</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>835</v>
+        <v>151</v>
       </c>
     </row>
     <row r="483" customHeight="1" ht="15">
       <c r="B483" s="8" t="s">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>828</v>
+        <v>248</v>
       </c>
     </row>
     <row r="484" customHeight="1" ht="15">
       <c r="B484" s="8" t="s">
-        <v>801</v>
+        <v>871</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>858</v>
+        <v>898</v>
       </c>
     </row>
     <row r="485" customHeight="1" ht="15">
       <c r="B485" s="8" t="s">
-        <v>802</v>
+        <v>872</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>862</v>
+        <v>896</v>
       </c>
     </row>
     <row r="486" customHeight="1" ht="15">
       <c r="B486" s="8" t="s">
-        <v>803</v>
+        <v>873</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>831</v>
+        <v>890</v>
       </c>
     </row>
     <row r="487" customHeight="1" ht="15">
       <c r="B487" s="8" t="s">
-        <v>804</v>
+        <v>874</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>819</v>
+        <v>899</v>
       </c>
     </row>
     <row r="488" customHeight="1" ht="15">
       <c r="B488" s="8" t="s">
-        <v>805</v>
+        <v>736</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>834</v>
+        <v>744</v>
       </c>
     </row>
     <row r="489" customHeight="1" ht="15">
       <c r="B489" s="8" t="s">
-        <v>806</v>
+        <v>876</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>860</v>
+        <v>912</v>
       </c>
     </row>
     <row r="490" customHeight="1" ht="15">
       <c r="B490" s="8" t="s">
-        <v>807</v>
+        <v>878</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>833</v>
+        <v>910</v>
       </c>
     </row>
     <row r="491" customHeight="1" ht="15">
       <c r="B491" s="8" t="s">
-        <v>808</v>
+        <v>879</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>830</v>
+        <v>908</v>
       </c>
     </row>
     <row r="492" customHeight="1" ht="15">
       <c r="B492" s="8" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
     </row>
     <row r="493" customHeight="1" ht="15">
       <c r="B493" s="8" t="s">
-        <v>810</v>
+        <v>883</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>825</v>
+        <v>911</v>
       </c>
     </row>
     <row r="494" customHeight="1" ht="15">
       <c r="B494" s="8" t="s">
-        <v>811</v>
+        <v>885</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>836</v>
+        <v>909</v>
       </c>
     </row>
     <row r="495" customHeight="1" ht="15">
       <c r="B495" s="8" t="s">
-        <v>812</v>
+        <v>886</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>859</v>
+        <v>914</v>
       </c>
     </row>
     <row r="496" customHeight="1" ht="15">
       <c r="B496" s="8" t="s">
-        <v>813</v>
+        <v>887</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>839</v>
+        <v>889</v>
       </c>
     </row>
     <row r="497" customHeight="1" ht="15">
       <c r="B497" s="8" t="s">
-        <v>814</v>
+        <v>888</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>796</v>
+        <v>891</v>
       </c>
     </row>
     <row r="498" customHeight="1" ht="15">
       <c r="B498" s="8" t="s">
-        <v>815</v>
+        <v>915</v>
       </c>
       <c r="C498" s="8" t="s">
-        <v>216</v>
+        <v>936</v>
       </c>
     </row>
     <row r="499" customHeight="1" ht="15">
       <c r="B499" s="8" t="s">
-        <v>816</v>
+        <v>916</v>
       </c>
       <c r="C499" s="8" t="s">
-        <v>832</v>
+        <v>934</v>
       </c>
     </row>
     <row r="500" customHeight="1" ht="15">
       <c r="B500" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C500" s="8" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
     </row>
     <row r="501" customHeight="1" ht="15">
       <c r="B501" s="8" t="s">
-        <v>818</v>
+        <v>919</v>
       </c>
       <c r="C501" s="8" t="s">
-        <v>861</v>
+        <v>939</v>
       </c>
     </row>
     <row r="502" customHeight="1" ht="15">
       <c r="B502" s="8" t="s">
-        <v>865</v>
+        <v>920</v>
       </c>
       <c r="C502" s="8" t="s">
-        <v>892</v>
+        <v>931</v>
       </c>
     </row>
     <row r="503" customHeight="1" ht="15">
       <c r="B503" s="8" t="s">
-        <v>866</v>
+        <v>932</v>
       </c>
       <c r="C503" s="8" t="s">
-        <v>913</v>
+        <v>940</v>
       </c>
     </row>
     <row r="504" customHeight="1" ht="15">
       <c r="B504" s="8" t="s">
-        <v>868</v>
+        <v>933</v>
       </c>
       <c r="C504" s="8" t="s">
-        <v>151</v>
+        <v>942</v>
       </c>
     </row>
     <row r="505" customHeight="1" ht="15">
       <c r="B505" s="8" t="s">
-        <v>870</v>
+        <v>946</v>
       </c>
       <c r="C505" s="8" t="s">
-        <v>248</v>
+        <v>960</v>
       </c>
     </row>
     <row r="506" customHeight="1" ht="15">
       <c r="B506" s="8" t="s">
-        <v>871</v>
+        <v>949</v>
       </c>
       <c r="C506" s="8" t="s">
-        <v>898</v>
+        <v>856</v>
       </c>
     </row>
     <row r="507" customHeight="1" ht="15">
       <c r="B507" s="8" t="s">
-        <v>872</v>
+        <v>950</v>
       </c>
       <c r="C507" s="8" t="s">
-        <v>896</v>
+        <v>961</v>
       </c>
     </row>
     <row r="508" customHeight="1" ht="15">
       <c r="B508" s="8" t="s">
-        <v>873</v>
+        <v>951</v>
       </c>
       <c r="C508" s="8" t="s">
-        <v>890</v>
+        <v>98</v>
       </c>
     </row>
     <row r="509" customHeight="1" ht="15">
       <c r="B509" s="8" t="s">
-        <v>874</v>
+        <v>952</v>
       </c>
       <c r="C509" s="8" t="s">
-        <v>899</v>
+        <v>929</v>
       </c>
     </row>
     <row r="510" customHeight="1" ht="15">
       <c r="B510" s="8" t="s">
-        <v>875</v>
+        <v>19</v>
       </c>
       <c r="C510" s="8" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
     </row>
     <row r="511" customHeight="1" ht="15">
       <c r="B511" s="8" t="s">
-        <v>876</v>
+        <v>20</v>
       </c>
       <c r="C511" s="8" t="s">
-        <v>912</v>
+        <v>941</v>
       </c>
     </row>
     <row r="512" customHeight="1" ht="15">
       <c r="B512" s="8" t="s">
-        <v>878</v>
+        <v>21</v>
       </c>
       <c r="C512" s="8" t="s">
-        <v>910</v>
+        <v>38</v>
       </c>
     </row>
     <row r="513" customHeight="1" ht="15">
       <c r="B513" s="8" t="s">
-        <v>879</v>
+        <v>22</v>
       </c>
       <c r="C513" s="8" t="s">
-        <v>908</v>
+        <v>46</v>
       </c>
     </row>
     <row r="514" customHeight="1" ht="15">
       <c r="B514" s="8" t="s">
-        <v>882</v>
+        <v>23</v>
       </c>
       <c r="C514" s="8" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
     </row>
     <row r="515" customHeight="1" ht="15">
       <c r="B515" s="8" t="s">
-        <v>883</v>
+        <v>24</v>
       </c>
       <c r="C515" s="8" t="s">
-        <v>911</v>
+        <v>39</v>
       </c>
     </row>
     <row r="516" customHeight="1" ht="15">
       <c r="B516" s="8" t="s">
-        <v>885</v>
+        <v>25</v>
       </c>
       <c r="C516" s="8" t="s">
-        <v>909</v>
+        <v>48</v>
       </c>
     </row>
     <row r="517" customHeight="1" ht="15">
       <c r="B517" s="8" t="s">
-        <v>886</v>
+        <v>27</v>
       </c>
       <c r="C517" s="8" t="s">
-        <v>914</v>
+        <v>43</v>
       </c>
     </row>
     <row r="518" customHeight="1" ht="15">
       <c r="B518" s="8" t="s">
-        <v>887</v>
+        <v>28</v>
       </c>
       <c r="C518" s="8" t="s">
-        <v>889</v>
+        <v>45</v>
       </c>
     </row>
     <row r="519" customHeight="1" ht="15">
       <c r="B519" s="8" t="s">
-        <v>888</v>
+        <v>29</v>
       </c>
       <c r="C519" s="8" t="s">
-        <v>891</v>
+        <v>47</v>
       </c>
     </row>
     <row r="520" customHeight="1" ht="15">
       <c r="B520" s="8" t="s">
-        <v>915</v>
+        <v>30</v>
       </c>
       <c r="C520" s="8" t="s">
-        <v>936</v>
+        <v>821</v>
       </c>
     </row>
     <row r="521" customHeight="1" ht="15">
       <c r="B521" s="8" t="s">
-        <v>916</v>
+        <v>31</v>
       </c>
       <c r="C521" s="8" t="s">
-        <v>934</v>
+        <v>51</v>
       </c>
     </row>
     <row r="522" customHeight="1" ht="15">
       <c r="B522" s="8" t="s">
-        <v>917</v>
+        <v>32</v>
       </c>
       <c r="C522" s="8" t="s">
-        <v>935</v>
+        <v>50</v>
       </c>
     </row>
     <row r="523" customHeight="1" ht="15">
       <c r="B523" s="8" t="s">
-        <v>918</v>
+        <v>33</v>
       </c>
       <c r="C523" s="8" t="s">
-        <v>643</v>
+        <v>49</v>
       </c>
     </row>
     <row r="524" customHeight="1" ht="15">
       <c r="B524" s="8" t="s">
-        <v>919</v>
+        <v>35</v>
       </c>
       <c r="C524" s="8" t="s">
-        <v>939</v>
+        <v>52</v>
       </c>
     </row>
     <row r="525" customHeight="1" ht="15">
       <c r="B525" s="8" t="s">
-        <v>920</v>
+        <v>53</v>
       </c>
       <c r="C525" s="8" t="s">
-        <v>931</v>
+        <v>92</v>
       </c>
     </row>
     <row r="526" customHeight="1" ht="15">
       <c r="B526" s="8" t="s">
-        <v>932</v>
+        <v>56</v>
       </c>
       <c r="C526" s="8" t="s">
-        <v>940</v>
+        <v>81</v>
       </c>
     </row>
     <row r="527" customHeight="1" ht="15">
       <c r="B527" s="8" t="s">
-        <v>933</v>
+        <v>57</v>
       </c>
       <c r="C527" s="8" t="s">
-        <v>942</v>
+        <v>80</v>
       </c>
     </row>
     <row r="528" customHeight="1" ht="15">
       <c r="B528" s="8" t="s">
-        <v>946</v>
+        <v>58</v>
       </c>
       <c r="C528" s="8" t="s">
-        <v>960</v>
+        <v>85</v>
       </c>
     </row>
     <row r="529" customHeight="1" ht="15">
       <c r="B529" s="8" t="s">
-        <v>949</v>
+        <v>59</v>
       </c>
       <c r="C529" s="8" t="s">
-        <v>856</v>
+        <v>105</v>
       </c>
     </row>
     <row r="530" customHeight="1" ht="15">
       <c r="B530" s="8" t="s">
-        <v>950</v>
+        <v>509</v>
       </c>
       <c r="C530" s="8" t="s">
-        <v>961</v>
+        <v>509</v>
       </c>
     </row>
     <row r="531" customHeight="1" ht="15">
       <c r="B531" s="8" t="s">
-        <v>951</v>
+        <v>507</v>
       </c>
       <c r="C531" s="8" t="s">
-        <v>98</v>
+        <v>507</v>
       </c>
     </row>
     <row r="532" customHeight="1" ht="15">
       <c r="B532" s="8" t="s">
-        <v>952</v>
+        <v>785</v>
       </c>
       <c r="C532" s="8" t="s">
-        <v>929</v>
+        <v>826</v>
       </c>
     </row>
     <row r="533" customHeight="1" ht="15">
       <c r="B533" s="8" t="s">
-        <v>953</v>
+        <v>34</v>
       </c>
       <c r="C533" s="8" t="s">
-        <v>962</v>
+        <v>34</v>
       </c>
     </row>
     <row r="534" customHeight="1" ht="15">
       <c r="B534" s="8" t="s">
-        <v>957</v>
+        <v>26</v>
       </c>
       <c r="C534" s="8" t="s">
-        <v>959</v>
+        <v>202</v>
       </c>
     </row>
     <row r="535" customHeight="1" ht="15">
       <c r="B535" s="8" t="s">
-        <v>970</v>
+        <v>255</v>
       </c>
       <c r="C535" s="8" t="s">
-        <v>975</v>
+        <v>938</v>
       </c>
     </row>
     <row r="536" customHeight="1" ht="15">
       <c r="B536" s="8" t="s">
-        <v>974</v>
+        <v>865</v>
       </c>
       <c r="C536" s="8" t="s">
-        <v>820</v>
+        <v>892</v>
       </c>
     </row>
     <row r="537" customHeight="1" ht="15">
       <c r="B537" s="8" t="s">
-        <v>982</v>
+        <v>64</v>
       </c>
       <c r="C537" s="8" t="s">
-        <v>987</v>
+        <v>64</v>
       </c>
     </row>
     <row r="538" customHeight="1" ht="15">
       <c r="B538" s="8" t="s">
-        <v>984</v>
+        <v>875</v>
       </c>
       <c r="C538" s="8" t="s">
-        <v>585</v>
+        <v>213</v>
       </c>
     </row>
     <row r="539" customHeight="1" ht="15">
       <c r="B539" s="8" t="s">
-        <v>988</v>
+        <v>12</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>837</v>
+        <v>82</v>
       </c>
     </row>
     <row r="540" customHeight="1" ht="15">
       <c r="B540" s="8" t="s">
-        <v>989</v>
+        <v>882</v>
       </c>
       <c r="C540" s="8" t="s">
-        <v>992</v>
+        <v>213</v>
       </c>
     </row>
     <row r="541" customHeight="1" ht="15">
       <c r="B541" s="8" t="s">
-        <v>990</v>
+        <v>917</v>
       </c>
       <c r="C541" s="8" t="s">
-        <v>993</v>
+        <v>935</v>
       </c>
     </row>
     <row r="542" customHeight="1" ht="15">
       <c r="B542" s="8" t="s">
-        <v>991</v>
+        <v>918</v>
       </c>
       <c r="C542" s="8" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/xtt_demo/04-01_R.xlsx
+++ b/xtt_demo/04-01_R.xlsx
@@ -4220,7 +4220,7 @@
   <sheetData>
     <row r="2" customHeight="1" ht="15">
       <c r="B2" s="1">
-        <v>44016.000000000000</v>
+        <v>44019.000000000000</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="3" customHeight="1" ht="15">
       <c r="B3" s="2">
-        <v>0.5585185185185185</v>
+        <v>0.5756828703703704</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="6" customHeight="1" ht="15">
       <c r="B6" s="4">
-        <v>44016.558518518519</v>
+        <v>44019.575682870367</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>963</v>
@@ -8569,2106 +8569,2106 @@
     </row>
     <row r="280" customHeight="1" ht="15">
       <c r="B280" s="8" t="s">
-        <v>953</v>
+        <v>12</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>962</v>
+        <v>82</v>
       </c>
     </row>
     <row r="281" customHeight="1" ht="15">
       <c r="B281" s="8" t="s">
-        <v>957</v>
+        <v>19</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>959</v>
+        <v>42</v>
       </c>
     </row>
     <row r="282" customHeight="1" ht="15">
       <c r="B282" s="8" t="s">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>975</v>
+        <v>941</v>
       </c>
     </row>
     <row r="283" customHeight="1" ht="15">
       <c r="B283" s="8" t="s">
-        <v>974</v>
+        <v>21</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>820</v>
+        <v>38</v>
       </c>
     </row>
     <row r="284" customHeight="1" ht="15">
       <c r="B284" s="8" t="s">
-        <v>982</v>
+        <v>22</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>987</v>
+        <v>46</v>
       </c>
     </row>
     <row r="285" customHeight="1" ht="15">
       <c r="B285" s="8" t="s">
-        <v>984</v>
+        <v>23</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>585</v>
+        <v>44</v>
       </c>
     </row>
     <row r="286" customHeight="1" ht="15">
       <c r="B286" s="8" t="s">
-        <v>988</v>
+        <v>24</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>837</v>
+        <v>39</v>
       </c>
     </row>
     <row r="287" customHeight="1" ht="15">
       <c r="B287" s="8" t="s">
-        <v>989</v>
+        <v>25</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>992</v>
+        <v>48</v>
       </c>
     </row>
     <row r="288" customHeight="1" ht="15">
       <c r="B288" s="8" t="s">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>993</v>
+        <v>202</v>
       </c>
     </row>
     <row r="289" customHeight="1" ht="15">
       <c r="B289" s="8" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
     </row>
     <row r="290" customHeight="1" ht="15">
       <c r="B290" s="8" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="291" customHeight="1" ht="15">
       <c r="B291" s="8" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
     </row>
     <row r="292" customHeight="1" ht="15">
       <c r="B292" s="8" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>87</v>
+        <v>821</v>
       </c>
     </row>
     <row r="293" customHeight="1" ht="15">
       <c r="B293" s="8" t="s">
-        <v>991</v>
+        <v>31</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>347</v>
+        <v>51</v>
       </c>
     </row>
     <row r="294" customHeight="1" ht="15">
       <c r="B294" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="295" customHeight="1" ht="15">
       <c r="B295" s="8" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
     </row>
     <row r="296" customHeight="1" ht="15">
       <c r="B296" s="8" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
     <row r="297" customHeight="1" ht="15">
       <c r="B297" s="8" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="298" customHeight="1" ht="15">
       <c r="B298" s="8" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="299" customHeight="1" ht="15">
       <c r="B299" s="8" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="300" customHeight="1" ht="15">
       <c r="B300" s="8" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="301" customHeight="1" ht="15">
       <c r="B301" s="8" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="302" customHeight="1" ht="15">
       <c r="B302" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="303" customHeight="1" ht="15">
       <c r="B303" s="8" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="304" customHeight="1" ht="15">
       <c r="B304" s="8" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="305" customHeight="1" ht="15">
       <c r="B305" s="8" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
     </row>
     <row r="306" customHeight="1" ht="15">
       <c r="B306" s="8" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>418</v>
+        <v>87</v>
       </c>
     </row>
     <row r="307" customHeight="1" ht="15">
       <c r="B307" s="8" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
     </row>
     <row r="308" customHeight="1" ht="15">
       <c r="B308" s="8" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="309" customHeight="1" ht="15">
       <c r="B309" s="8" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>788</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" customHeight="1" ht="15">
       <c r="B310" s="8" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311" customHeight="1" ht="15">
       <c r="B311" s="8" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
     </row>
     <row r="312" customHeight="1" ht="15">
       <c r="B312" s="8" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
     </row>
     <row r="313" customHeight="1" ht="15">
       <c r="B313" s="8" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
     </row>
     <row r="314" customHeight="1" ht="15">
       <c r="B314" s="8" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
     </row>
     <row r="315" customHeight="1" ht="15">
       <c r="B315" s="8" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>863</v>
+        <v>95</v>
       </c>
     </row>
     <row r="316" customHeight="1" ht="15">
       <c r="B316" s="8" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
     </row>
     <row r="317" customHeight="1" ht="15">
       <c r="B317" s="8" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
     </row>
     <row r="318" customHeight="1" ht="15">
       <c r="B318" s="8" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
     </row>
     <row r="319" customHeight="1" ht="15">
       <c r="B319" s="8" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="320" customHeight="1" ht="15">
       <c r="B320" s="8" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="321" customHeight="1" ht="15">
       <c r="B321" s="8" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>827</v>
+        <v>418</v>
       </c>
     </row>
     <row r="322" customHeight="1" ht="15">
       <c r="B322" s="8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
     </row>
     <row r="323" customHeight="1" ht="15">
       <c r="B323" s="8" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
     </row>
     <row r="324" customHeight="1" ht="15">
       <c r="B324" s="8" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>180</v>
+        <v>788</v>
       </c>
     </row>
     <row r="325" customHeight="1" ht="15">
       <c r="B325" s="8" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>288</v>
+        <v>863</v>
       </c>
     </row>
     <row r="326" customHeight="1" ht="15">
       <c r="B326" s="8" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="327" customHeight="1" ht="15">
       <c r="B327" s="8" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
     </row>
     <row r="328" customHeight="1" ht="15">
       <c r="B328" s="8" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="329" customHeight="1" ht="15">
       <c r="B329" s="8" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
     </row>
     <row r="330" customHeight="1" ht="15">
       <c r="B330" s="8" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
     </row>
     <row r="331" customHeight="1" ht="15">
       <c r="B331" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="332" customHeight="1" ht="15">
       <c r="B332" s="8" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
     </row>
     <row r="333" customHeight="1" ht="15">
       <c r="B333" s="8" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>215</v>
+        <v>827</v>
       </c>
     </row>
     <row r="334" customHeight="1" ht="15">
       <c r="B334" s="8" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>978</v>
+        <v>165</v>
       </c>
     </row>
     <row r="335" customHeight="1" ht="15">
       <c r="B335" s="8" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
     </row>
     <row r="336" customHeight="1" ht="15">
       <c r="B336" s="8" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>840</v>
+        <v>178</v>
       </c>
     </row>
     <row r="337" customHeight="1" ht="15">
       <c r="B337" s="8" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
     </row>
     <row r="338" customHeight="1" ht="15">
       <c r="B338" s="8" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
     </row>
     <row r="339" customHeight="1" ht="15">
       <c r="B339" s="8" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
     </row>
     <row r="340" customHeight="1" ht="15">
       <c r="B340" s="8" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
     </row>
     <row r="341" customHeight="1" ht="15">
       <c r="B341" s="8" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="342" customHeight="1" ht="15">
       <c r="B342" s="8" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="C342" s="8" t="s">
-        <v>609</v>
+        <v>196</v>
       </c>
     </row>
     <row r="343" customHeight="1" ht="15">
       <c r="B343" s="8" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="C343" s="8" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
     </row>
     <row r="344" customHeight="1" ht="15">
       <c r="B344" s="8" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
     </row>
     <row r="345" customHeight="1" ht="15">
       <c r="B345" s="8" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
     </row>
     <row r="346" customHeight="1" ht="15">
       <c r="B346" s="8" t="s">
-        <v>416</v>
+        <v>204</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>417</v>
+        <v>214</v>
       </c>
     </row>
     <row r="347" customHeight="1" ht="15">
       <c r="B347" s="8" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
     </row>
     <row r="348" customHeight="1" ht="15">
       <c r="B348" s="8" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="C348" s="8" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
     </row>
     <row r="349" customHeight="1" ht="15">
       <c r="B349" s="8" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>247</v>
+        <v>978</v>
       </c>
     </row>
     <row r="350" customHeight="1" ht="15">
       <c r="B350" s="8" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="351" customHeight="1" ht="15">
       <c r="B351" s="8" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>289</v>
+        <v>840</v>
       </c>
     </row>
     <row r="352" customHeight="1" ht="15">
       <c r="B352" s="8" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
     </row>
     <row r="353" customHeight="1" ht="15">
       <c r="B353" s="8" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
     </row>
     <row r="354" customHeight="1" ht="15">
       <c r="B354" s="8" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
     </row>
     <row r="355" customHeight="1" ht="15">
       <c r="B355" s="8" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
     </row>
     <row r="356" customHeight="1" ht="15">
       <c r="B356" s="8" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
     </row>
     <row r="357" customHeight="1" ht="15">
       <c r="B357" s="8" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>219</v>
+        <v>609</v>
       </c>
     </row>
     <row r="358" customHeight="1" ht="15">
       <c r="B358" s="8" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
     </row>
     <row r="359" customHeight="1" ht="15">
       <c r="B359" s="8" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
     </row>
     <row r="360" customHeight="1" ht="15">
       <c r="B360" s="8" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="361" customHeight="1" ht="15">
       <c r="B361" s="8" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>313</v>
+        <v>938</v>
       </c>
     </row>
     <row r="362" customHeight="1" ht="15">
       <c r="B362" s="8" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="363" customHeight="1" ht="15">
       <c r="B363" s="8" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
     </row>
     <row r="364" customHeight="1" ht="15">
       <c r="B364" s="8" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>338</v>
+        <v>247</v>
       </c>
     </row>
     <row r="365" customHeight="1" ht="15">
       <c r="B365" s="8" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="366" customHeight="1" ht="15">
       <c r="B366" s="8" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
     </row>
     <row r="367" customHeight="1" ht="15">
       <c r="B367" s="8" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>795</v>
+        <v>290</v>
       </c>
     </row>
     <row r="368" customHeight="1" ht="15">
       <c r="B368" s="8" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="369" customHeight="1" ht="15">
       <c r="B369" s="8" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
     </row>
     <row r="370" customHeight="1" ht="15">
       <c r="B370" s="8" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
     </row>
     <row r="371" customHeight="1" ht="15">
       <c r="B371" s="8" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
     </row>
     <row r="372" customHeight="1" ht="15">
       <c r="B372" s="8" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>361</v>
+        <v>219</v>
       </c>
     </row>
     <row r="373" customHeight="1" ht="15">
       <c r="B373" s="8" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
     </row>
     <row r="374" customHeight="1" ht="15">
       <c r="B374" s="8" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>360</v>
+        <v>795</v>
       </c>
     </row>
     <row r="375" customHeight="1" ht="15">
       <c r="B375" s="8" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>97</v>
+        <v>314</v>
       </c>
     </row>
     <row r="376" customHeight="1" ht="15">
       <c r="B376" s="8" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
     </row>
     <row r="377" customHeight="1" ht="15">
       <c r="B377" s="8" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
     </row>
     <row r="378" customHeight="1" ht="15">
       <c r="B378" s="8" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
     </row>
     <row r="379" customHeight="1" ht="15">
       <c r="B379" s="8" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
     </row>
     <row r="380" customHeight="1" ht="15">
       <c r="B380" s="8" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
     </row>
     <row r="381" customHeight="1" ht="15">
       <c r="B381" s="8" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
     </row>
     <row r="382" customHeight="1" ht="15">
       <c r="B382" s="8" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>374</v>
+        <v>164</v>
       </c>
     </row>
     <row r="383" customHeight="1" ht="15">
       <c r="B383" s="8" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
     </row>
     <row r="384" customHeight="1" ht="15">
       <c r="B384" s="8" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
     </row>
     <row r="385" customHeight="1" ht="15">
       <c r="B385" s="8" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>456</v>
+        <v>356</v>
       </c>
     </row>
     <row r="386" customHeight="1" ht="15">
       <c r="B386" s="8" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>138</v>
+        <v>359</v>
       </c>
     </row>
     <row r="387" customHeight="1" ht="15">
       <c r="B387" s="8" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>454</v>
+        <v>361</v>
       </c>
     </row>
     <row r="388" customHeight="1" ht="15">
       <c r="B388" s="8" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>157</v>
+        <v>360</v>
       </c>
     </row>
     <row r="389" customHeight="1" ht="15">
       <c r="B389" s="8" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>854</v>
+        <v>355</v>
       </c>
     </row>
     <row r="390" customHeight="1" ht="15">
       <c r="B390" s="8" t="s">
-        <v>407</v>
+        <v>348</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>696</v>
+        <v>97</v>
       </c>
     </row>
     <row r="391" customHeight="1" ht="15">
       <c r="B391" s="8" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>838</v>
+        <v>358</v>
       </c>
     </row>
     <row r="392" customHeight="1" ht="15">
       <c r="B392" s="8" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>455</v>
+        <v>357</v>
       </c>
     </row>
     <row r="393" customHeight="1" ht="15">
       <c r="B393" s="8" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>146</v>
+        <v>353</v>
       </c>
     </row>
     <row r="394" customHeight="1" ht="15">
       <c r="B394" s="8" t="s">
-        <v>458</v>
+        <v>352</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>473</v>
+        <v>362</v>
       </c>
     </row>
     <row r="395" customHeight="1" ht="15">
       <c r="B395" s="8" t="s">
-        <v>459</v>
+        <v>364</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>475</v>
+        <v>373</v>
       </c>
     </row>
     <row r="396" customHeight="1" ht="15">
       <c r="B396" s="8" t="s">
-        <v>460</v>
+        <v>367</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>855</v>
+        <v>371</v>
       </c>
     </row>
     <row r="397" customHeight="1" ht="15">
       <c r="B397" s="8" t="s">
-        <v>462</v>
+        <v>369</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>479</v>
+        <v>374</v>
       </c>
     </row>
     <row r="398" customHeight="1" ht="15">
       <c r="B398" s="8" t="s">
-        <v>463</v>
+        <v>370</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>853</v>
+        <v>372</v>
       </c>
     </row>
     <row r="399" customHeight="1" ht="15">
       <c r="B399" s="8" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
     </row>
     <row r="400" customHeight="1" ht="15">
       <c r="B400" s="8" t="s">
-        <v>468</v>
+        <v>385</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
     </row>
     <row r="401" customHeight="1" ht="15">
       <c r="B401" s="8" t="s">
-        <v>469</v>
+        <v>391</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>485</v>
+        <v>138</v>
       </c>
     </row>
     <row r="402" customHeight="1" ht="15">
       <c r="B402" s="8" t="s">
-        <v>470</v>
+        <v>393</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
     </row>
     <row r="403" customHeight="1" ht="15">
       <c r="B403" s="8" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>474</v>
+        <v>157</v>
       </c>
     </row>
     <row r="404" customHeight="1" ht="15">
       <c r="B404" s="8" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>478</v>
+        <v>854</v>
       </c>
     </row>
     <row r="405" customHeight="1" ht="15">
       <c r="B405" s="8" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>655</v>
+        <v>696</v>
       </c>
     </row>
     <row r="406" customHeight="1" ht="15">
       <c r="B406" s="8" t="s">
-        <v>505</v>
+        <v>409</v>
       </c>
       <c r="C406" s="8" t="s">
-        <v>650</v>
+        <v>838</v>
       </c>
     </row>
     <row r="407" customHeight="1" ht="15">
       <c r="B407" s="8" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>645</v>
+        <v>455</v>
       </c>
     </row>
     <row r="408" customHeight="1" ht="15">
       <c r="B408" s="8" t="s">
-        <v>510</v>
+        <v>415</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>572</v>
+        <v>146</v>
       </c>
     </row>
     <row r="409" customHeight="1" ht="15">
       <c r="B409" s="8" t="s">
-        <v>518</v>
+        <v>416</v>
       </c>
       <c r="C409" s="8" t="s">
-        <v>578</v>
+        <v>417</v>
       </c>
     </row>
     <row r="410" customHeight="1" ht="15">
       <c r="B410" s="8" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>571</v>
+        <v>473</v>
       </c>
     </row>
     <row r="411" customHeight="1" ht="15">
       <c r="B411" s="8" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>576</v>
+        <v>475</v>
       </c>
     </row>
     <row r="412" customHeight="1" ht="15">
       <c r="B412" s="8" t="s">
-        <v>530</v>
+        <v>460</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>106</v>
+        <v>855</v>
       </c>
     </row>
     <row r="413" customHeight="1" ht="15">
       <c r="B413" s="8" t="s">
-        <v>539</v>
+        <v>462</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>651</v>
+        <v>479</v>
       </c>
     </row>
     <row r="414" customHeight="1" ht="15">
       <c r="B414" s="8" t="s">
-        <v>541</v>
+        <v>463</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>570</v>
+        <v>853</v>
       </c>
     </row>
     <row r="415" customHeight="1" ht="15">
       <c r="B415" s="8" t="s">
-        <v>545</v>
+        <v>467</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>658</v>
+        <v>477</v>
       </c>
     </row>
     <row r="416" customHeight="1" ht="15">
       <c r="B416" s="8" t="s">
-        <v>554</v>
+        <v>468</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>579</v>
+        <v>476</v>
       </c>
     </row>
     <row r="417" customHeight="1" ht="15">
       <c r="B417" s="8" t="s">
-        <v>555</v>
+        <v>469</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>583</v>
+        <v>485</v>
       </c>
     </row>
     <row r="418" customHeight="1" ht="15">
       <c r="B418" s="8" t="s">
-        <v>556</v>
+        <v>470</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>653</v>
+        <v>486</v>
       </c>
     </row>
     <row r="419" customHeight="1" ht="15">
       <c r="B419" s="8" t="s">
-        <v>560</v>
+        <v>471</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>577</v>
+        <v>474</v>
       </c>
     </row>
     <row r="420" customHeight="1" ht="15">
       <c r="B420" s="8" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>584</v>
+        <v>478</v>
       </c>
     </row>
     <row r="421" customHeight="1" ht="15">
       <c r="B421" s="8" t="s">
-        <v>563</v>
+        <v>495</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>575</v>
+        <v>654</v>
       </c>
     </row>
     <row r="422" customHeight="1" ht="15">
       <c r="B422" s="8" t="s">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>573</v>
+        <v>655</v>
       </c>
     </row>
     <row r="423" customHeight="1" ht="15">
       <c r="B423" s="8" t="s">
-        <v>364</v>
+        <v>505</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>373</v>
+        <v>650</v>
       </c>
     </row>
     <row r="424" customHeight="1" ht="15">
       <c r="B424" s="8" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="425" customHeight="1" ht="15">
       <c r="B425" s="8" t="s">
-        <v>569</v>
+        <v>507</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>656</v>
+        <v>507</v>
       </c>
     </row>
     <row r="426" customHeight="1" ht="15">
       <c r="B426" s="8" t="s">
-        <v>659</v>
+        <v>509</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>677</v>
+        <v>509</v>
       </c>
     </row>
     <row r="427" customHeight="1" ht="15">
       <c r="B427" s="8" t="s">
-        <v>662</v>
+        <v>510</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>685</v>
+        <v>572</v>
       </c>
     </row>
     <row r="428" customHeight="1" ht="15">
       <c r="B428" s="8" t="s">
-        <v>663</v>
+        <v>518</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>691</v>
+        <v>578</v>
       </c>
     </row>
     <row r="429" customHeight="1" ht="15">
       <c r="B429" s="8" t="s">
-        <v>664</v>
+        <v>526</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>695</v>
+        <v>571</v>
       </c>
     </row>
     <row r="430" customHeight="1" ht="15">
       <c r="B430" s="8" t="s">
-        <v>665</v>
+        <v>527</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>692</v>
+        <v>576</v>
       </c>
     </row>
     <row r="431" customHeight="1" ht="15">
       <c r="B431" s="8" t="s">
-        <v>666</v>
+        <v>530</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>690</v>
+        <v>106</v>
       </c>
     </row>
     <row r="432" customHeight="1" ht="15">
       <c r="B432" s="8" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>602</v>
+        <v>651</v>
       </c>
     </row>
     <row r="433" customHeight="1" ht="15">
       <c r="B433" s="8" t="s">
-        <v>670</v>
+        <v>541</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>697</v>
+        <v>570</v>
       </c>
     </row>
     <row r="434" customHeight="1" ht="15">
       <c r="B434" s="8" t="s">
-        <v>671</v>
+        <v>545</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
     </row>
     <row r="435" customHeight="1" ht="15">
       <c r="B435" s="8" t="s">
-        <v>672</v>
+        <v>554</v>
       </c>
       <c r="C435" s="8" t="s">
-        <v>682</v>
+        <v>579</v>
       </c>
     </row>
     <row r="436" customHeight="1" ht="15">
       <c r="B436" s="8" t="s">
-        <v>674</v>
+        <v>555</v>
       </c>
       <c r="C436" s="8" t="s">
-        <v>661</v>
+        <v>583</v>
       </c>
     </row>
     <row r="437" customHeight="1" ht="15">
       <c r="B437" s="8" t="s">
-        <v>675</v>
+        <v>556</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>693</v>
+        <v>653</v>
       </c>
     </row>
     <row r="438" customHeight="1" ht="15">
       <c r="B438" s="8" t="s">
-        <v>676</v>
+        <v>560</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>686</v>
+        <v>577</v>
       </c>
     </row>
     <row r="439" customHeight="1" ht="15">
       <c r="B439" s="8" t="s">
-        <v>701</v>
+        <v>562</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>707</v>
+        <v>584</v>
       </c>
     </row>
     <row r="440" customHeight="1" ht="15">
       <c r="B440" s="8" t="s">
-        <v>703</v>
+        <v>563</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>709</v>
+        <v>575</v>
       </c>
     </row>
     <row r="441" customHeight="1" ht="15">
       <c r="B441" s="8" t="s">
-        <v>713</v>
+        <v>565</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>746</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" customHeight="1" ht="15">
       <c r="B442" s="8" t="s">
-        <v>719</v>
+        <v>567</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>762</v>
+        <v>602</v>
       </c>
     </row>
     <row r="443" customHeight="1" ht="15">
       <c r="B443" s="8" t="s">
-        <v>720</v>
+        <v>568</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>246</v>
+        <v>574</v>
       </c>
     </row>
     <row r="444" customHeight="1" ht="15">
       <c r="B444" s="8" t="s">
-        <v>721</v>
+        <v>569</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>747</v>
+        <v>656</v>
       </c>
     </row>
     <row r="445" customHeight="1" ht="15">
       <c r="B445" s="8" t="s">
-        <v>722</v>
+        <v>659</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>763</v>
+        <v>677</v>
       </c>
     </row>
     <row r="446" customHeight="1" ht="15">
       <c r="B446" s="8" t="s">
-        <v>723</v>
+        <v>662</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>742</v>
+        <v>685</v>
       </c>
     </row>
     <row r="447" customHeight="1" ht="15">
       <c r="B447" s="8" t="s">
-        <v>724</v>
+        <v>663</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>770</v>
+        <v>691</v>
       </c>
     </row>
     <row r="448" customHeight="1" ht="15">
       <c r="B448" s="8" t="s">
-        <v>725</v>
+        <v>664</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>857</v>
+        <v>695</v>
       </c>
     </row>
     <row r="449" customHeight="1" ht="15">
       <c r="B449" s="8" t="s">
-        <v>728</v>
+        <v>665</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>768</v>
+        <v>692</v>
       </c>
     </row>
     <row r="450" customHeight="1" ht="15">
       <c r="B450" s="8" t="s">
-        <v>732</v>
+        <v>666</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>774</v>
+        <v>690</v>
       </c>
     </row>
     <row r="451" customHeight="1" ht="15">
       <c r="B451" s="8" t="s">
-        <v>568</v>
+        <v>667</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>574</v>
+        <v>684</v>
       </c>
     </row>
     <row r="452" customHeight="1" ht="15">
       <c r="B452" s="8" t="s">
-        <v>737</v>
+        <v>670</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>771</v>
+        <v>697</v>
       </c>
     </row>
     <row r="453" customHeight="1" ht="15">
       <c r="B453" s="8" t="s">
-        <v>738</v>
+        <v>671</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>743</v>
+        <v>683</v>
       </c>
     </row>
     <row r="454" customHeight="1" ht="15">
       <c r="B454" s="8" t="s">
-        <v>739</v>
+        <v>672</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>748</v>
+        <v>682</v>
       </c>
     </row>
     <row r="455" customHeight="1" ht="15">
       <c r="B455" s="8" t="s">
-        <v>775</v>
+        <v>674</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>777</v>
+        <v>661</v>
       </c>
     </row>
     <row r="456" customHeight="1" ht="15">
       <c r="B456" s="8" t="s">
-        <v>780</v>
+        <v>675</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>789</v>
+        <v>693</v>
       </c>
     </row>
     <row r="457" customHeight="1" ht="15">
       <c r="B457" s="8" t="s">
-        <v>783</v>
+        <v>676</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>791</v>
+        <v>686</v>
       </c>
     </row>
     <row r="458" customHeight="1" ht="15">
       <c r="B458" s="8" t="s">
-        <v>786</v>
+        <v>701</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>792</v>
+        <v>707</v>
       </c>
     </row>
     <row r="459" customHeight="1" ht="15">
       <c r="B459" s="8" t="s">
-        <v>787</v>
+        <v>703</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>793</v>
+        <v>709</v>
       </c>
     </row>
     <row r="460" customHeight="1" ht="15">
       <c r="B460" s="8" t="s">
-        <v>798</v>
+        <v>704</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>823</v>
+        <v>710</v>
       </c>
     </row>
     <row r="461" customHeight="1" ht="15">
       <c r="B461" s="8" t="s">
-        <v>799</v>
+        <v>713</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>835</v>
+        <v>746</v>
       </c>
     </row>
     <row r="462" customHeight="1" ht="15">
       <c r="B462" s="8" t="s">
-        <v>800</v>
+        <v>719</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>828</v>
+        <v>762</v>
       </c>
     </row>
     <row r="463" customHeight="1" ht="15">
       <c r="B463" s="8" t="s">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>858</v>
+        <v>246</v>
       </c>
     </row>
     <row r="464" customHeight="1" ht="15">
       <c r="B464" s="8" t="s">
-        <v>802</v>
+        <v>721</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>862</v>
+        <v>747</v>
       </c>
     </row>
     <row r="465" customHeight="1" ht="15">
       <c r="B465" s="8" t="s">
-        <v>803</v>
+        <v>722</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>831</v>
+        <v>763</v>
       </c>
     </row>
     <row r="466" customHeight="1" ht="15">
       <c r="B466" s="8" t="s">
-        <v>804</v>
+        <v>723</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>819</v>
+        <v>742</v>
       </c>
     </row>
     <row r="467" customHeight="1" ht="15">
       <c r="B467" s="8" t="s">
-        <v>805</v>
+        <v>724</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>834</v>
+        <v>770</v>
       </c>
     </row>
     <row r="468" customHeight="1" ht="15">
       <c r="B468" s="8" t="s">
-        <v>806</v>
+        <v>725</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="469" customHeight="1" ht="15">
       <c r="B469" s="8" t="s">
-        <v>807</v>
+        <v>728</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>833</v>
+        <v>768</v>
       </c>
     </row>
     <row r="470" customHeight="1" ht="15">
       <c r="B470" s="8" t="s">
-        <v>808</v>
+        <v>732</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>830</v>
+        <v>774</v>
       </c>
     </row>
     <row r="471" customHeight="1" ht="15">
       <c r="B471" s="8" t="s">
-        <v>809</v>
+        <v>736</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>822</v>
+        <v>744</v>
       </c>
     </row>
     <row r="472" customHeight="1" ht="15">
       <c r="B472" s="8" t="s">
-        <v>810</v>
+        <v>737</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>825</v>
+        <v>771</v>
       </c>
     </row>
     <row r="473" customHeight="1" ht="15">
       <c r="B473" s="8" t="s">
-        <v>811</v>
+        <v>738</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>836</v>
+        <v>743</v>
       </c>
     </row>
     <row r="474" customHeight="1" ht="15">
       <c r="B474" s="8" t="s">
-        <v>812</v>
+        <v>739</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>859</v>
+        <v>748</v>
       </c>
     </row>
     <row r="475" customHeight="1" ht="15">
       <c r="B475" s="8" t="s">
-        <v>667</v>
+        <v>775</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>684</v>
+        <v>777</v>
       </c>
     </row>
     <row r="476" customHeight="1" ht="15">
       <c r="B476" s="8" t="s">
-        <v>814</v>
+        <v>780</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
     </row>
     <row r="477" customHeight="1" ht="15">
       <c r="B477" s="8" t="s">
-        <v>815</v>
+        <v>783</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>216</v>
+        <v>791</v>
       </c>
     </row>
     <row r="478" customHeight="1" ht="15">
       <c r="B478" s="8" t="s">
-        <v>704</v>
+        <v>785</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>710</v>
+        <v>826</v>
       </c>
     </row>
     <row r="479" customHeight="1" ht="15">
       <c r="B479" s="8" t="s">
-        <v>817</v>
+        <v>786</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>864</v>
+        <v>792</v>
       </c>
     </row>
     <row r="480" customHeight="1" ht="15">
       <c r="B480" s="8" t="s">
-        <v>818</v>
+        <v>787</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>861</v>
+        <v>793</v>
       </c>
     </row>
     <row r="481" customHeight="1" ht="15">
       <c r="B481" s="8" t="s">
-        <v>866</v>
+        <v>798</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>913</v>
+        <v>823</v>
       </c>
     </row>
     <row r="482" customHeight="1" ht="15">
       <c r="B482" s="8" t="s">
-        <v>868</v>
+        <v>799</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>151</v>
+        <v>835</v>
       </c>
     </row>
     <row r="483" customHeight="1" ht="15">
       <c r="B483" s="8" t="s">
-        <v>870</v>
+        <v>800</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>248</v>
+        <v>828</v>
       </c>
     </row>
     <row r="484" customHeight="1" ht="15">
       <c r="B484" s="8" t="s">
-        <v>871</v>
+        <v>801</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>898</v>
+        <v>858</v>
       </c>
     </row>
     <row r="485" customHeight="1" ht="15">
       <c r="B485" s="8" t="s">
-        <v>872</v>
+        <v>802</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>896</v>
+        <v>862</v>
       </c>
     </row>
     <row r="486" customHeight="1" ht="15">
       <c r="B486" s="8" t="s">
-        <v>873</v>
+        <v>803</v>
       </c>
       <c r="C486" s="8" t="s">
-        <v>890</v>
+        <v>831</v>
       </c>
     </row>
     <row r="487" customHeight="1" ht="15">
       <c r="B487" s="8" t="s">
-        <v>874</v>
+        <v>804</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>899</v>
+        <v>819</v>
       </c>
     </row>
     <row r="488" customHeight="1" ht="15">
       <c r="B488" s="8" t="s">
-        <v>736</v>
+        <v>805</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>744</v>
+        <v>834</v>
       </c>
     </row>
     <row r="489" customHeight="1" ht="15">
       <c r="B489" s="8" t="s">
-        <v>876</v>
+        <v>806</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>912</v>
+        <v>860</v>
       </c>
     </row>
     <row r="490" customHeight="1" ht="15">
       <c r="B490" s="8" t="s">
-        <v>878</v>
+        <v>807</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>910</v>
+        <v>833</v>
       </c>
     </row>
     <row r="491" customHeight="1" ht="15">
       <c r="B491" s="8" t="s">
-        <v>879</v>
+        <v>808</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>908</v>
+        <v>830</v>
       </c>
     </row>
     <row r="492" customHeight="1" ht="15">
       <c r="B492" s="8" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
     </row>
     <row r="493" customHeight="1" ht="15">
       <c r="B493" s="8" t="s">
-        <v>883</v>
+        <v>810</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>911</v>
+        <v>825</v>
       </c>
     </row>
     <row r="494" customHeight="1" ht="15">
       <c r="B494" s="8" t="s">
-        <v>885</v>
+        <v>811</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>909</v>
+        <v>836</v>
       </c>
     </row>
     <row r="495" customHeight="1" ht="15">
       <c r="B495" s="8" t="s">
-        <v>886</v>
+        <v>812</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>914</v>
+        <v>859</v>
       </c>
     </row>
     <row r="496" customHeight="1" ht="15">
       <c r="B496" s="8" t="s">
-        <v>887</v>
+        <v>813</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>889</v>
+        <v>839</v>
       </c>
     </row>
     <row r="497" customHeight="1" ht="15">
       <c r="B497" s="8" t="s">
-        <v>888</v>
+        <v>814</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>891</v>
+        <v>796</v>
       </c>
     </row>
     <row r="498" customHeight="1" ht="15">
       <c r="B498" s="8" t="s">
-        <v>915</v>
+        <v>815</v>
       </c>
       <c r="C498" s="8" t="s">
-        <v>936</v>
+        <v>216</v>
       </c>
     </row>
     <row r="499" customHeight="1" ht="15">
       <c r="B499" s="8" t="s">
-        <v>916</v>
+        <v>816</v>
       </c>
       <c r="C499" s="8" t="s">
-        <v>934</v>
+        <v>832</v>
       </c>
     </row>
     <row r="500" customHeight="1" ht="15">
       <c r="B500" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C500" s="8" t="s">
-        <v>832</v>
+        <v>864</v>
       </c>
     </row>
     <row r="501" customHeight="1" ht="15">
       <c r="B501" s="8" t="s">
-        <v>919</v>
+        <v>818</v>
       </c>
       <c r="C501" s="8" t="s">
-        <v>939</v>
+        <v>861</v>
       </c>
     </row>
     <row r="502" customHeight="1" ht="15">
       <c r="B502" s="8" t="s">
-        <v>920</v>
+        <v>865</v>
       </c>
       <c r="C502" s="8" t="s">
-        <v>931</v>
+        <v>892</v>
       </c>
     </row>
     <row r="503" customHeight="1" ht="15">
       <c r="B503" s="8" t="s">
-        <v>932</v>
+        <v>866</v>
       </c>
       <c r="C503" s="8" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
     </row>
     <row r="504" customHeight="1" ht="15">
       <c r="B504" s="8" t="s">
-        <v>933</v>
+        <v>868</v>
       </c>
       <c r="C504" s="8" t="s">
-        <v>942</v>
+        <v>151</v>
       </c>
     </row>
     <row r="505" customHeight="1" ht="15">
       <c r="B505" s="8" t="s">
-        <v>946</v>
+        <v>870</v>
       </c>
       <c r="C505" s="8" t="s">
-        <v>960</v>
+        <v>248</v>
       </c>
     </row>
     <row r="506" customHeight="1" ht="15">
       <c r="B506" s="8" t="s">
-        <v>949</v>
+        <v>871</v>
       </c>
       <c r="C506" s="8" t="s">
-        <v>856</v>
+        <v>898</v>
       </c>
     </row>
     <row r="507" customHeight="1" ht="15">
       <c r="B507" s="8" t="s">
-        <v>950</v>
+        <v>872</v>
       </c>
       <c r="C507" s="8" t="s">
-        <v>961</v>
+        <v>896</v>
       </c>
     </row>
     <row r="508" customHeight="1" ht="15">
       <c r="B508" s="8" t="s">
-        <v>951</v>
+        <v>873</v>
       </c>
       <c r="C508" s="8" t="s">
-        <v>98</v>
+        <v>890</v>
       </c>
     </row>
     <row r="509" customHeight="1" ht="15">
       <c r="B509" s="8" t="s">
-        <v>952</v>
+        <v>874</v>
       </c>
       <c r="C509" s="8" t="s">
-        <v>929</v>
+        <v>899</v>
       </c>
     </row>
     <row r="510" customHeight="1" ht="15">
       <c r="B510" s="8" t="s">
-        <v>19</v>
+        <v>875</v>
       </c>
       <c r="C510" s="8" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
     </row>
     <row r="511" customHeight="1" ht="15">
       <c r="B511" s="8" t="s">
-        <v>20</v>
+        <v>876</v>
       </c>
       <c r="C511" s="8" t="s">
-        <v>941</v>
+        <v>912</v>
       </c>
     </row>
     <row r="512" customHeight="1" ht="15">
       <c r="B512" s="8" t="s">
-        <v>21</v>
+        <v>878</v>
       </c>
       <c r="C512" s="8" t="s">
-        <v>38</v>
+        <v>910</v>
       </c>
     </row>
     <row r="513" customHeight="1" ht="15">
       <c r="B513" s="8" t="s">
-        <v>22</v>
+        <v>879</v>
       </c>
       <c r="C513" s="8" t="s">
-        <v>46</v>
+        <v>908</v>
       </c>
     </row>
     <row r="514" customHeight="1" ht="15">
       <c r="B514" s="8" t="s">
-        <v>23</v>
+        <v>882</v>
       </c>
       <c r="C514" s="8" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
     </row>
     <row r="515" customHeight="1" ht="15">
       <c r="B515" s="8" t="s">
-        <v>24</v>
+        <v>883</v>
       </c>
       <c r="C515" s="8" t="s">
-        <v>39</v>
+        <v>911</v>
       </c>
     </row>
     <row r="516" customHeight="1" ht="15">
       <c r="B516" s="8" t="s">
-        <v>25</v>
+        <v>885</v>
       </c>
       <c r="C516" s="8" t="s">
-        <v>48</v>
+        <v>909</v>
       </c>
     </row>
     <row r="517" customHeight="1" ht="15">
       <c r="B517" s="8" t="s">
-        <v>27</v>
+        <v>886</v>
       </c>
       <c r="C517" s="8" t="s">
-        <v>43</v>
+        <v>914</v>
       </c>
     </row>
     <row r="518" customHeight="1" ht="15">
       <c r="B518" s="8" t="s">
-        <v>28</v>
+        <v>887</v>
       </c>
       <c r="C518" s="8" t="s">
-        <v>45</v>
+        <v>889</v>
       </c>
     </row>
     <row r="519" customHeight="1" ht="15">
       <c r="B519" s="8" t="s">
-        <v>29</v>
+        <v>888</v>
       </c>
       <c r="C519" s="8" t="s">
-        <v>47</v>
+        <v>891</v>
       </c>
     </row>
     <row r="520" customHeight="1" ht="15">
       <c r="B520" s="8" t="s">
-        <v>30</v>
+        <v>915</v>
       </c>
       <c r="C520" s="8" t="s">
-        <v>821</v>
+        <v>936</v>
       </c>
     </row>
     <row r="521" customHeight="1" ht="15">
       <c r="B521" s="8" t="s">
-        <v>31</v>
+        <v>916</v>
       </c>
       <c r="C521" s="8" t="s">
-        <v>51</v>
+        <v>934</v>
       </c>
     </row>
     <row r="522" customHeight="1" ht="15">
       <c r="B522" s="8" t="s">
-        <v>32</v>
+        <v>917</v>
       </c>
       <c r="C522" s="8" t="s">
-        <v>50</v>
+        <v>935</v>
       </c>
     </row>
     <row r="523" customHeight="1" ht="15">
       <c r="B523" s="8" t="s">
-        <v>33</v>
+        <v>918</v>
       </c>
       <c r="C523" s="8" t="s">
-        <v>49</v>
+        <v>643</v>
       </c>
     </row>
     <row r="524" customHeight="1" ht="15">
       <c r="B524" s="8" t="s">
-        <v>35</v>
+        <v>919</v>
       </c>
       <c r="C524" s="8" t="s">
-        <v>52</v>
+        <v>939</v>
       </c>
     </row>
     <row r="525" customHeight="1" ht="15">
       <c r="B525" s="8" t="s">
-        <v>53</v>
+        <v>920</v>
       </c>
       <c r="C525" s="8" t="s">
-        <v>92</v>
+        <v>931</v>
       </c>
     </row>
     <row r="526" customHeight="1" ht="15">
       <c r="B526" s="8" t="s">
-        <v>56</v>
+        <v>932</v>
       </c>
       <c r="C526" s="8" t="s">
-        <v>81</v>
+        <v>940</v>
       </c>
     </row>
     <row r="527" customHeight="1" ht="15">
       <c r="B527" s="8" t="s">
-        <v>57</v>
+        <v>933</v>
       </c>
       <c r="C527" s="8" t="s">
-        <v>80</v>
+        <v>942</v>
       </c>
     </row>
     <row r="528" customHeight="1" ht="15">
       <c r="B528" s="8" t="s">
-        <v>58</v>
+        <v>946</v>
       </c>
       <c r="C528" s="8" t="s">
-        <v>85</v>
+        <v>960</v>
       </c>
     </row>
     <row r="529" customHeight="1" ht="15">
       <c r="B529" s="8" t="s">
-        <v>59</v>
+        <v>949</v>
       </c>
       <c r="C529" s="8" t="s">
-        <v>105</v>
+        <v>856</v>
       </c>
     </row>
     <row r="530" customHeight="1" ht="15">
       <c r="B530" s="8" t="s">
-        <v>509</v>
+        <v>950</v>
       </c>
       <c r="C530" s="8" t="s">
-        <v>509</v>
+        <v>961</v>
       </c>
     </row>
     <row r="531" customHeight="1" ht="15">
       <c r="B531" s="8" t="s">
-        <v>507</v>
+        <v>951</v>
       </c>
       <c r="C531" s="8" t="s">
-        <v>507</v>
+        <v>98</v>
       </c>
     </row>
     <row r="532" customHeight="1" ht="15">
       <c r="B532" s="8" t="s">
-        <v>785</v>
+        <v>952</v>
       </c>
       <c r="C532" s="8" t="s">
-        <v>826</v>
+        <v>929</v>
       </c>
     </row>
     <row r="533" customHeight="1" ht="15">
       <c r="B533" s="8" t="s">
-        <v>34</v>
+        <v>953</v>
       </c>
       <c r="C533" s="8" t="s">
-        <v>34</v>
+        <v>962</v>
       </c>
     </row>
     <row r="534" customHeight="1" ht="15">
       <c r="B534" s="8" t="s">
-        <v>26</v>
+        <v>957</v>
       </c>
       <c r="C534" s="8" t="s">
-        <v>202</v>
+        <v>959</v>
       </c>
     </row>
     <row r="535" customHeight="1" ht="15">
       <c r="B535" s="8" t="s">
-        <v>255</v>
+        <v>970</v>
       </c>
       <c r="C535" s="8" t="s">
-        <v>938</v>
+        <v>975</v>
       </c>
     </row>
     <row r="536" customHeight="1" ht="15">
       <c r="B536" s="8" t="s">
-        <v>865</v>
+        <v>974</v>
       </c>
       <c r="C536" s="8" t="s">
-        <v>892</v>
+        <v>820</v>
       </c>
     </row>
     <row r="537" customHeight="1" ht="15">
       <c r="B537" s="8" t="s">
-        <v>64</v>
+        <v>982</v>
       </c>
       <c r="C537" s="8" t="s">
-        <v>64</v>
+        <v>987</v>
       </c>
     </row>
     <row r="538" customHeight="1" ht="15">
       <c r="B538" s="8" t="s">
-        <v>875</v>
+        <v>984</v>
       </c>
       <c r="C538" s="8" t="s">
-        <v>213</v>
+        <v>585</v>
       </c>
     </row>
     <row r="539" customHeight="1" ht="15">
       <c r="B539" s="8" t="s">
-        <v>12</v>
+        <v>988</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>82</v>
+        <v>837</v>
       </c>
     </row>
     <row r="540" customHeight="1" ht="15">
       <c r="B540" s="8" t="s">
-        <v>882</v>
+        <v>989</v>
       </c>
       <c r="C540" s="8" t="s">
-        <v>213</v>
+        <v>992</v>
       </c>
     </row>
     <row r="541" customHeight="1" ht="15">
       <c r="B541" s="8" t="s">
-        <v>917</v>
+        <v>990</v>
       </c>
       <c r="C541" s="8" t="s">
-        <v>935</v>
+        <v>993</v>
       </c>
     </row>
     <row r="542" customHeight="1" ht="15">
       <c r="B542" s="8" t="s">
-        <v>918</v>
+        <v>991</v>
       </c>
       <c r="C542" s="8" t="s">
-        <v>643</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/xtt_demo/04-01_R.xlsx
+++ b/xtt_demo/04-01_R.xlsx
@@ -4220,7 +4220,7 @@
   <sheetData>
     <row r="2" customHeight="1" ht="15">
       <c r="B2" s="1">
-        <v>44019.000000000000</v>
+        <v>44069.000000000000</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="3" customHeight="1" ht="15">
       <c r="B3" s="2">
-        <v>0.5756828703703704</v>
+        <v>0.6294791666666667</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="6" customHeight="1" ht="15">
       <c r="B6" s="4">
-        <v>44019.575682870367</v>
+        <v>44069.629479166666</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>963</v>

--- a/xtt_demo/04-01_R.xlsx
+++ b/xtt_demo/04-01_R.xlsx
@@ -4220,7 +4220,7 @@
   <sheetData>
     <row r="2" customHeight="1" ht="15">
       <c r="B2" s="1">
-        <v>44069.000000000000</v>
+        <v>44070.000000000000</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="3" customHeight="1" ht="15">
       <c r="B3" s="2">
-        <v>0.6294791666666667</v>
+        <v>0.4755324074074074</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="6" customHeight="1" ht="15">
       <c r="B6" s="4">
-        <v>44069.629479166666</v>
+        <v>44070.475532407407</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>963</v>

--- a/xtt_demo/04-01_R.xlsx
+++ b/xtt_demo/04-01_R.xlsx
@@ -4220,7 +4220,7 @@
   <sheetData>
     <row r="2" customHeight="1" ht="15">
       <c r="B2" s="1">
-        <v>44070.000000000000</v>
+        <v>44125.000000000000</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="3" customHeight="1" ht="15">
       <c r="B3" s="2">
-        <v>0.4755324074074074</v>
+        <v>0.5084722222222222</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="6" customHeight="1" ht="15">
       <c r="B6" s="4">
-        <v>44070.475532407407</v>
+        <v>44125.508472222224</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>963</v>
